--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지3.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BD446-3D69-41CE-86D8-8CBFD092F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479A733-4641-4A1E-BE70-5653D5A2E510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1439">
   <si>
     <t>Time</t>
   </si>
@@ -4350,6 +4350,10 @@
   </si>
   <si>
     <t>fixed-label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4722,19 +4726,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4748,10 +4751,10 @@
         <v>1437</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5453,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -5903,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -6551,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -6869,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -6929,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -7052,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -7295,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -7358,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -7373,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -7463,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -7553,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -7631,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -7661,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>384</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>386</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>390</v>
       </c>
@@ -7721,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>396</v>
       </c>
@@ -7766,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -7781,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>400</v>
       </c>
@@ -7799,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>402</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>404</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>406</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>418</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>420</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>422</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>424</v>
       </c>
@@ -7979,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>425</v>
       </c>
@@ -7994,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>427</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>431</v>
       </c>
@@ -8039,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>433</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>435</v>
       </c>
@@ -8072,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>437</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>439</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>443</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>445</v>
       </c>
@@ -8150,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>447</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>451</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>453</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>455</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>457</v>
       </c>
@@ -8240,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>459</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -8273,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>465</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>467</v>
       </c>
@@ -8321,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>469</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>471</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>473</v>
       </c>
@@ -8366,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>475</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>477</v>
       </c>
@@ -8396,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>479</v>
       </c>
@@ -8411,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>485</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>487</v>
       </c>
@@ -8474,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>489</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>491</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>493</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>495</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>497</v>
       </c>
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>499</v>
       </c>
@@ -8567,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>501</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>503</v>
       </c>
@@ -8600,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>505</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>507</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>509</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>511</v>
       </c>
@@ -8660,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>513</v>
       </c>
@@ -8675,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>515</v>
       </c>
@@ -8690,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>517</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>519</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>521</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>523</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>525</v>
       </c>
@@ -8765,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>527</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>529</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>531</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>533</v>
       </c>
@@ -8825,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>535</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>537</v>
       </c>
@@ -8855,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>539</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>541</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>543</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>545</v>
       </c>
@@ -8915,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>547</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>549</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>551</v>
       </c>
@@ -8963,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>553</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>555</v>
       </c>
@@ -8993,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>557</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>559</v>
       </c>
@@ -9023,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>561</v>
       </c>
@@ -9038,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>563</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>565</v>
       </c>
@@ -9068,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>567</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>569</v>
       </c>
@@ -9098,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>571</v>
       </c>
@@ -9113,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>573</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>575</v>
       </c>
@@ -9143,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>577</v>
       </c>
@@ -9158,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>579</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>581</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>583</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>585</v>
       </c>
@@ -9221,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>587</v>
       </c>
@@ -9236,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>589</v>
       </c>
@@ -9251,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>591</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>593</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>595</v>
       </c>
@@ -9296,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>597</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>599</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>601</v>
       </c>
@@ -9344,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>603</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>605</v>
       </c>
@@ -9377,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>607</v>
       </c>
@@ -9392,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>609</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>611</v>
       </c>
@@ -9425,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>613</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>615</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>617</v>
       </c>
@@ -9473,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>619</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>621</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>623</v>
       </c>
@@ -9521,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>625</v>
       </c>
@@ -9539,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>627</v>
       </c>
@@ -9554,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>629</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>631</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>633</v>
       </c>
@@ -9602,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>635</v>
       </c>
@@ -9617,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>637</v>
       </c>
@@ -9632,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>639</v>
       </c>
@@ -9650,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>641</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>643</v>
       </c>
@@ -9680,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>645</v>
       </c>
@@ -9698,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>647</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>649</v>
       </c>
@@ -9728,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>651</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>653</v>
       </c>
@@ -9758,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>655</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>657</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>659</v>
       </c>
@@ -9806,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>661</v>
       </c>
@@ -9821,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>663</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>665</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>667</v>
       </c>
@@ -9866,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>669</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>671</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>673</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>675</v>
       </c>
@@ -9926,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>677</v>
       </c>
@@ -9941,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>679</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>681</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>683</v>
       </c>
@@ -9989,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>685</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>687</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>689</v>
       </c>
@@ -10040,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>691</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>693</v>
       </c>
@@ -10073,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>695</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>697</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>699</v>
       </c>
@@ -10118,7 +10121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>701</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>703</v>
       </c>
@@ -10151,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>705</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>707</v>
       </c>
@@ -10181,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>709</v>
       </c>
@@ -10199,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>711</v>
       </c>
@@ -10214,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>713</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>715</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>717</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>719</v>
       </c>
@@ -10274,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>721</v>
       </c>
@@ -10289,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>723</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>725</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>727</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>729</v>
       </c>
@@ -10349,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>731</v>
       </c>
@@ -10364,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>733</v>
       </c>
@@ -10379,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>735</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>737</v>
       </c>
@@ -10409,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>739</v>
       </c>
@@ -10424,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>741</v>
       </c>
@@ -10439,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>743</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>745</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>747</v>
       </c>
@@ -10484,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>749</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>751</v>
       </c>
@@ -10514,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>753</v>
       </c>
@@ -10529,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>755</v>
       </c>
@@ -10544,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>757</v>
       </c>
@@ -10562,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>759</v>
       </c>
@@ -10577,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>761</v>
       </c>
@@ -10592,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>763</v>
       </c>
@@ -10607,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>765</v>
       </c>
@@ -10622,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>767</v>
       </c>
@@ -10637,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>769</v>
       </c>
@@ -10652,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>771</v>
       </c>
@@ -10667,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>773</v>
       </c>
@@ -10682,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>775</v>
       </c>
@@ -10697,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>777</v>
       </c>
@@ -10712,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>779</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>781</v>
       </c>
@@ -10742,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>783</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>785</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>787</v>
       </c>
@@ -10787,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>789</v>
       </c>
@@ -10805,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>791</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>793</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>795</v>
       </c>
@@ -10850,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>797</v>
       </c>
@@ -10865,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>799</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>801</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>803</v>
       </c>
@@ -10913,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>805</v>
       </c>
@@ -10928,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>807</v>
       </c>
@@ -10946,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>809</v>
       </c>
@@ -10961,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>811</v>
       </c>
@@ -10979,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>813</v>
       </c>
@@ -10997,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>815</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>817</v>
       </c>
@@ -11027,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>819</v>
       </c>
@@ -11045,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>821</v>
       </c>
@@ -11060,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>823</v>
       </c>
@@ -11075,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>825</v>
       </c>
@@ -11090,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>827</v>
       </c>
@@ -11105,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>829</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>831</v>
       </c>
@@ -11135,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>833</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>835</v>
       </c>
@@ -11168,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>837</v>
       </c>
@@ -11183,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>839</v>
       </c>
@@ -11198,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>841</v>
       </c>
@@ -11213,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>843</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>845</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>847</v>
       </c>
@@ -11258,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>848</v>
       </c>
@@ -11273,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>850</v>
       </c>
@@ -11288,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>852</v>
       </c>
@@ -11303,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>854</v>
       </c>
@@ -11318,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>856</v>
       </c>
@@ -11333,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>858</v>
       </c>
@@ -11348,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>860</v>
       </c>
@@ -11363,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>862</v>
       </c>
@@ -11378,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>864</v>
       </c>
@@ -11393,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>866</v>
       </c>
@@ -11408,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>868</v>
       </c>
@@ -11423,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>870</v>
       </c>
@@ -11438,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>872</v>
       </c>
@@ -11453,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>874</v>
       </c>
@@ -11468,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>876</v>
       </c>
@@ -11483,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>878</v>
       </c>
@@ -11498,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>880</v>
       </c>
@@ -11513,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>882</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>884</v>
       </c>
@@ -11543,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>886</v>
       </c>
@@ -11558,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>888</v>
       </c>
@@ -11573,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>890</v>
       </c>
@@ -11588,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>892</v>
       </c>
@@ -11603,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>894</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>896</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>898</v>
       </c>
@@ -11648,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>900</v>
       </c>
@@ -11663,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>902</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>904</v>
       </c>
@@ -11693,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>906</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>908</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>910</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>912</v>
       </c>
@@ -11753,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>914</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>916</v>
       </c>
@@ -11786,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>918</v>
       </c>
@@ -11804,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>920</v>
       </c>
@@ -11819,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>922</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>924</v>
       </c>
@@ -11849,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>926</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>928</v>
       </c>
@@ -11879,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>930</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>932</v>
       </c>
@@ -11909,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>934</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>936</v>
       </c>
@@ -11939,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>938</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>940</v>
       </c>
@@ -11969,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>942</v>
       </c>
@@ -11984,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>944</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>946</v>
       </c>
@@ -12014,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>948</v>
       </c>
@@ -12029,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>950</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>952</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>954</v>
       </c>
@@ -12074,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>956</v>
       </c>
@@ -12089,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>958</v>
       </c>
@@ -12104,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>960</v>
       </c>
@@ -12119,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>962</v>
       </c>
@@ -12134,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>964</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>966</v>
       </c>
@@ -12164,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>968</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>970</v>
       </c>
@@ -12194,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>972</v>
       </c>
@@ -12209,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>974</v>
       </c>
@@ -12224,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>976</v>
       </c>
@@ -12239,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>978</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>980</v>
       </c>
@@ -12269,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>982</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>984</v>
       </c>
@@ -12299,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>986</v>
       </c>
@@ -12314,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>988</v>
       </c>
@@ -12329,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>990</v>
       </c>
@@ -12344,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>992</v>
       </c>
@@ -12359,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>994</v>
       </c>
@@ -12374,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>996</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>998</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>1000</v>
       </c>
@@ -12422,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>1002</v>
       </c>
@@ -12437,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1004</v>
       </c>
@@ -12452,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1006</v>
       </c>
@@ -12467,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1008</v>
       </c>
@@ -12482,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1010</v>
       </c>
@@ -12497,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1012</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1014</v>
       </c>
@@ -12527,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1016</v>
       </c>
@@ -12542,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1018</v>
       </c>
@@ -12560,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1020</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1022</v>
       </c>
@@ -12590,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1024</v>
       </c>
@@ -12605,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1026</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1028</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1030</v>
       </c>
@@ -12650,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1032</v>
       </c>
@@ -12668,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1034</v>
       </c>
@@ -12686,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1036</v>
       </c>
@@ -12704,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1038</v>
       </c>
@@ -12719,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1040</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1042</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1044</v>
       </c>
@@ -12764,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1046</v>
       </c>
@@ -12779,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1048</v>
       </c>
@@ -12794,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1050</v>
       </c>
@@ -12809,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1052</v>
       </c>
@@ -12824,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1054</v>
       </c>
@@ -12839,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1055</v>
       </c>
@@ -12854,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1057</v>
       </c>
@@ -12869,7 +12872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1059</v>
       </c>
@@ -12884,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1061</v>
       </c>
@@ -12899,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1063</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1065</v>
       </c>
@@ -12929,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1067</v>
       </c>
@@ -12944,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1069</v>
       </c>
@@ -12959,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1071</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1073</v>
       </c>
@@ -12989,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1075</v>
       </c>
@@ -13004,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1077</v>
       </c>
@@ -13019,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1079</v>
       </c>
@@ -13034,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1081</v>
       </c>
@@ -13049,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1083</v>
       </c>
@@ -13064,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1085</v>
       </c>
@@ -13079,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1087</v>
       </c>
@@ -13097,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1089</v>
       </c>
@@ -13112,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1091</v>
       </c>
@@ -13127,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1093</v>
       </c>
@@ -13142,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1095</v>
       </c>
@@ -13157,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1097</v>
       </c>
@@ -13175,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1099</v>
       </c>
@@ -13190,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1101</v>
       </c>
@@ -13205,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1103</v>
       </c>
@@ -13223,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1105</v>
       </c>
@@ -13238,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1107</v>
       </c>
@@ -13253,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1108</v>
       </c>
@@ -13268,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1109</v>
       </c>
@@ -13283,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1111</v>
       </c>
@@ -13301,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1113</v>
       </c>
@@ -13316,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1115</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1117</v>
       </c>
@@ -13349,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1119</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1121</v>
       </c>
@@ -13379,7 +13382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1123</v>
       </c>
@@ -13394,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1125</v>
       </c>
@@ -13409,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1127</v>
       </c>
@@ -13424,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1129</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1131</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1133</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1135</v>
       </c>
@@ -13487,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1137</v>
       </c>
@@ -13505,7 +13508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1139</v>
       </c>
@@ -13523,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1141</v>
       </c>
@@ -13538,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1143</v>
       </c>
@@ -13556,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1145</v>
       </c>
@@ -13571,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1147</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1149</v>
       </c>
@@ -13601,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1151</v>
       </c>
@@ -13616,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1153</v>
       </c>
@@ -13631,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1155</v>
       </c>
@@ -13646,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1157</v>
       </c>
@@ -13664,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1159</v>
       </c>
@@ -13679,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1161</v>
       </c>
@@ -13694,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1163</v>
       </c>
@@ -13712,7 +13715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1165</v>
       </c>
@@ -13727,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1167</v>
       </c>
@@ -13742,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1169</v>
       </c>
@@ -13757,7 +13760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1171</v>
       </c>
@@ -13772,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1173</v>
       </c>
@@ -13787,7 +13790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1175</v>
       </c>
@@ -13802,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1177</v>
       </c>
@@ -13817,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1179</v>
       </c>
@@ -13835,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1181</v>
       </c>
@@ -13850,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1183</v>
       </c>
@@ -13865,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1185</v>
       </c>
@@ -13880,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1187</v>
       </c>
@@ -13898,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1189</v>
       </c>
@@ -13913,7 +13916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1191</v>
       </c>
@@ -13928,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1193</v>
       </c>
@@ -13946,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1195</v>
       </c>
@@ -13961,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1197</v>
       </c>
@@ -13976,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1199</v>
       </c>
@@ -13994,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1200</v>
       </c>
@@ -14009,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1202</v>
       </c>
@@ -14024,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1204</v>
       </c>
@@ -14039,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1206</v>
       </c>
@@ -14054,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1208</v>
       </c>
@@ -14069,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1210</v>
       </c>
@@ -14087,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1212</v>
       </c>
@@ -14102,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1214</v>
       </c>
@@ -14117,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1216</v>
       </c>
@@ -14132,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1218</v>
       </c>
@@ -14147,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1220</v>
       </c>
@@ -14162,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1222</v>
       </c>
@@ -14177,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1224</v>
       </c>
@@ -14192,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1226</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1228</v>
       </c>
@@ -14222,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1230</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1232</v>
       </c>
@@ -14252,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1234</v>
       </c>
@@ -14267,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1236</v>
       </c>
@@ -14282,7 +14285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1238</v>
       </c>
@@ -14297,7 +14300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1240</v>
       </c>
@@ -14312,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1242</v>
       </c>
@@ -14327,7 +14330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1244</v>
       </c>
@@ -14342,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1246</v>
       </c>
@@ -14357,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1248</v>
       </c>
@@ -14372,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1250</v>
       </c>
@@ -14387,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1252</v>
       </c>
@@ -14402,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1254</v>
       </c>
@@ -14417,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1256</v>
       </c>
@@ -14432,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1258</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1260</v>
       </c>
@@ -14462,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1262</v>
       </c>
@@ -14477,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1264</v>
       </c>
@@ -14492,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1266</v>
       </c>
@@ -14510,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1268</v>
       </c>
@@ -14525,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1270</v>
       </c>
@@ -14540,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1272</v>
       </c>
@@ -14555,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1274</v>
       </c>
@@ -14570,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1276</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1278</v>
       </c>
@@ -14600,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1280</v>
       </c>
@@ -14615,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1282</v>
       </c>
@@ -14630,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1284</v>
       </c>
@@ -14648,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1286</v>
       </c>
@@ -14663,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1288</v>
       </c>
@@ -14678,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1290</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1292</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1294</v>
       </c>
@@ -14723,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1296</v>
       </c>
@@ -14738,7 +14741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1298</v>
       </c>
@@ -14753,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1300</v>
       </c>
@@ -14768,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1302</v>
       </c>
@@ -14786,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1304</v>
       </c>
@@ -14804,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1306</v>
       </c>
@@ -14819,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1308</v>
       </c>
@@ -14837,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1310</v>
       </c>
@@ -14852,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1312</v>
       </c>
@@ -14867,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1314</v>
       </c>
@@ -14882,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1316</v>
       </c>
@@ -14897,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1318</v>
       </c>
@@ -14912,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1320</v>
       </c>
@@ -14927,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1322</v>
       </c>
@@ -14942,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1324</v>
       </c>
@@ -14957,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1326</v>
       </c>
@@ -14972,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1328</v>
       </c>
@@ -14987,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1330</v>
       </c>
@@ -15002,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1332</v>
       </c>
@@ -15017,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1334</v>
       </c>
@@ -15032,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1336</v>
       </c>
@@ -15047,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1338</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1340</v>
       </c>
@@ -15077,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1342</v>
       </c>
@@ -15092,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1344</v>
       </c>
@@ -15107,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1346</v>
       </c>
@@ -15122,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1348</v>
       </c>
@@ -15137,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1350</v>
       </c>
@@ -15152,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1352</v>
       </c>
@@ -15167,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1354</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1356</v>
       </c>
@@ -15200,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1358</v>
       </c>
@@ -15218,7 +15221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1360</v>
       </c>
@@ -15233,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1362</v>
       </c>
@@ -15248,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1364</v>
       </c>
@@ -15263,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1366</v>
       </c>
@@ -15278,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1368</v>
       </c>
@@ -15293,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1370</v>
       </c>
@@ -15308,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1372</v>
       </c>
@@ -15323,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1374</v>
       </c>
@@ -15338,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1376</v>
       </c>
@@ -15353,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1378</v>
       </c>
@@ -15368,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1380</v>
       </c>
@@ -15383,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1382</v>
       </c>
@@ -15401,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1384</v>
       </c>
@@ -15416,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1386</v>
       </c>
@@ -15431,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1388</v>
       </c>
@@ -15446,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1390</v>
       </c>
@@ -15461,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1392</v>
       </c>
@@ -15476,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1394</v>
       </c>
@@ -15491,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1396</v>
       </c>
@@ -15506,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1398</v>
       </c>
@@ -15521,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1400</v>
       </c>
@@ -15536,7 +15539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1402</v>
       </c>
@@ -15551,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1404</v>
       </c>
@@ -15566,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1405</v>
       </c>
@@ -15581,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1407</v>
       </c>
@@ -15596,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1409</v>
       </c>
@@ -15611,7 +15614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1411</v>
       </c>
@@ -15626,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1413</v>
       </c>
@@ -15644,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1415</v>
       </c>
@@ -15659,7 +15662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1417</v>
       </c>
@@ -15674,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1419</v>
       </c>
@@ -15689,7 +15692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1421</v>
       </c>
@@ -15704,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1423</v>
       </c>
@@ -15719,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1425</v>
       </c>
@@ -15734,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1427</v>
       </c>
@@ -15749,7 +15752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1429</v>
       </c>
@@ -15764,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1431</v>
       </c>
@@ -15779,7 +15782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1433</v>
       </c>
@@ -15794,7 +15797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1435</v>
       </c>
@@ -15810,16 +15813,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F722" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F722" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지3.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845530F5-9513-46D2-ADAD-0CCBCC3CE862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A2B3D1-E813-452D-97B0-D5EF7E1026A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4439,7 +4439,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4747,7 +4747,7 @@
   <dimension ref="A1:F722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4790,7 +4790,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4809,7 +4808,6 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">IF(ISBLANK(F3),D3,F3)</f>
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +4826,6 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +4844,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4866,7 +4862,6 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4885,7 +4880,6 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4904,7 +4898,6 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4923,7 +4916,6 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4942,7 +4934,6 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4961,7 +4952,6 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4980,7 +4970,6 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4999,7 +4988,6 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5018,7 +5006,6 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -5040,7 +5027,6 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5059,7 +5045,6 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -5081,7 +5066,6 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5100,7 +5084,6 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5119,7 +5102,6 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,7 +5120,6 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5157,7 +5138,6 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21">
@@ -5179,7 +5159,6 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5198,7 +5177,6 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5217,7 +5195,6 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5236,7 +5213,6 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5255,7 +5231,6 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5274,7 +5249,6 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5293,7 +5267,6 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5312,7 +5285,6 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5331,7 +5303,6 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F30">
@@ -5353,7 +5324,6 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5372,7 +5342,6 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5391,7 +5360,6 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5410,7 +5378,6 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5429,7 +5396,6 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5448,7 +5414,6 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5467,7 +5432,6 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5486,7 +5450,6 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5505,7 +5468,6 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5524,7 +5486,6 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5543,7 +5504,6 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5562,7 +5522,6 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5581,7 +5540,6 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5600,7 +5558,6 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5619,7 +5576,6 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5638,7 +5594,6 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5657,7 +5612,6 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5676,7 +5630,6 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -5698,7 +5651,6 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49">
@@ -5720,7 +5672,6 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5739,7 +5690,6 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5758,7 +5708,6 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5777,7 +5726,6 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5796,7 +5744,6 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5815,7 +5762,6 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5834,7 +5780,6 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5853,7 +5798,6 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5872,7 +5816,6 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5891,7 +5834,6 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F59">
@@ -5913,7 +5855,6 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F60">
@@ -5935,7 +5876,6 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5954,7 +5894,6 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5973,7 +5912,6 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5992,7 +5930,6 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6011,7 +5948,6 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6026,11 +5962,10 @@
         <v>1.5034139156341549E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="2">IF(C66&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D66:D129" si="1">IF(C66&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6045,11 +5980,10 @@
         <v>1.5127161517739299E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">IF(ISBLANK(F67),D67,F67)</f>
         <v>0</v>
       </c>
     </row>
@@ -6064,11 +5998,10 @@
         <v>4.5711766928434372E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6083,11 +6016,10 @@
         <v>0.98509120941162109</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6102,11 +6034,10 @@
         <v>1.5904152765870091E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6121,11 +6052,10 @@
         <v>0.98486047983169556</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F71">
@@ -6143,11 +6073,10 @@
         <v>1.3815444894135E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6162,11 +6091,10 @@
         <v>1.460559200495481E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6181,11 +6109,10 @@
         <v>1.4125089161098E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6200,11 +6127,10 @@
         <v>1.381240505725145E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6219,11 +6145,10 @@
         <v>1.5153946354985241E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6238,11 +6163,10 @@
         <v>1.4130980707705019E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6257,11 +6181,10 @@
         <v>1.5376860275864599E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6276,11 +6199,10 @@
         <v>1.393058802932501E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6295,11 +6217,10 @@
         <v>2.8823582455515862E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6314,11 +6235,10 @@
         <v>1.3830062933266159E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6333,11 +6253,10 @@
         <v>1.3611523434519769E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6352,11 +6271,10 @@
         <v>1.4133140444755551E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6371,11 +6289,10 @@
         <v>0.98288476467132568</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6390,11 +6307,10 @@
         <v>0.98548442125320435</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6409,11 +6325,10 @@
         <v>0.98546892404556274</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6428,11 +6343,10 @@
         <v>0.98548918962478638</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6447,11 +6361,10 @@
         <v>1.5159306116402149E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6466,11 +6379,10 @@
         <v>1.3654253445565701E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6485,11 +6397,10 @@
         <v>3.1194113194942471E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6504,11 +6415,10 @@
         <v>1.418939046561718E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6523,11 +6433,10 @@
         <v>1.380514353513718E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6542,11 +6451,10 @@
         <v>1.375598274171352E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6561,11 +6469,10 @@
         <v>1.425752602517605E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6580,11 +6487,10 @@
         <v>0.98547548055648804</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6599,11 +6505,10 @@
         <v>2.0603520795702931E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6618,11 +6523,10 @@
         <v>1.3675320893526081E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6637,11 +6541,10 @@
         <v>0.21759442985057831</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6656,11 +6559,10 @@
         <v>0.2173860967159271</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6675,11 +6577,10 @@
         <v>0.98548430204391479</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6694,11 +6595,10 @@
         <v>1.3815204612910749E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6713,11 +6613,10 @@
         <v>2.9512980952858921E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6732,11 +6631,10 @@
         <v>1.394587103277445E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6751,11 +6649,10 @@
         <v>3.4333433955907822E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6770,11 +6667,10 @@
         <v>1.5014903619885439E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6789,11 +6685,10 @@
         <v>1.611937582492828E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6808,11 +6703,10 @@
         <v>0.98190605640411377</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6827,11 +6721,10 @@
         <v>0.98190605640411377</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6846,11 +6739,10 @@
         <v>0.98547863960266113</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6865,11 +6757,10 @@
         <v>0.98548746109008789</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6884,11 +6775,10 @@
         <v>0.98493713140487671</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6903,11 +6793,10 @@
         <v>0.82058370113372803</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6922,11 +6811,10 @@
         <v>1.7768161371350288E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6941,11 +6829,10 @@
         <v>1.377741899341345E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6960,11 +6847,10 @@
         <v>1.3781021349132059E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6979,11 +6865,10 @@
         <v>0.98526102304458618</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F116">
@@ -7001,11 +6886,10 @@
         <v>1.364420726895332E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7020,11 +6904,10 @@
         <v>1.400409359484911E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7039,11 +6922,10 @@
         <v>1.368798408657312E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7058,11 +6940,10 @@
         <v>0.98045998811721802</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F120">
@@ -7080,11 +6961,10 @@
         <v>3.4021999686956413E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7099,11 +6979,10 @@
         <v>1.365633495151997E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7118,11 +6997,10 @@
         <v>1.3708909042179579E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7137,11 +7015,10 @@
         <v>2.115715853869915E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7156,11 +7033,10 @@
         <v>1.544034760445356E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7175,11 +7051,10 @@
         <v>1.363428216427565E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7194,11 +7069,10 @@
         <v>1.7366010695695881E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7213,11 +7087,10 @@
         <v>1.5473727136850361E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7232,11 +7105,10 @@
         <v>1.362406462430954E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7251,11 +7123,10 @@
         <v>1.354542002081871E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D193" si="4">IF(C130&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D130:D193" si="2">IF(C130&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7270,11 +7141,10 @@
         <v>1.3763864524662489E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">IF(ISBLANK(F131),D131,F131)</f>
         <v>0</v>
       </c>
     </row>
@@ -7289,11 +7159,10 @@
         <v>1.3929801993072029E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7308,11 +7177,10 @@
         <v>1.3860916718840601E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7327,11 +7195,10 @@
         <v>1.367236208170652E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7346,11 +7213,10 @@
         <v>1.4004054479300979E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7365,11 +7231,10 @@
         <v>1.371202897280455E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7384,11 +7249,10 @@
         <v>1.390634756535292E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7403,11 +7267,10 @@
         <v>1.358085963875055E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7422,11 +7285,10 @@
         <v>1.3714132830500599E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7441,11 +7303,10 @@
         <v>1.359841879457235E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7460,11 +7321,10 @@
         <v>1.4378335326910021E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7479,11 +7339,10 @@
         <v>1.387652847915888E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7498,11 +7357,10 @@
         <v>1.4327566139400011E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7517,11 +7375,10 @@
         <v>1.379352156072855E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7536,11 +7393,10 @@
         <v>1.3905869796872141E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7555,11 +7411,10 @@
         <v>0.98518800735473633</v>
       </c>
       <c r="D146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E146">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F146">
@@ -7577,11 +7432,10 @@
         <v>1.8201107159256939E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7596,11 +7450,10 @@
         <v>1.3716099783778191E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7615,11 +7468,10 @@
         <v>1.6208428889513019E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7634,11 +7486,10 @@
         <v>0.98546278476715088</v>
       </c>
       <c r="D150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E150">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7653,11 +7504,10 @@
         <v>0.98544484376907349</v>
       </c>
       <c r="D151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E151">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7672,11 +7522,10 @@
         <v>1.4884184114634991E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7691,11 +7540,10 @@
         <v>1.3760958798229689E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7710,11 +7558,10 @@
         <v>1.414942741394043E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7729,11 +7576,10 @@
         <v>1.388868410140276E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7748,11 +7594,10 @@
         <v>0.98546326160430908</v>
       </c>
       <c r="D156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7767,11 +7612,10 @@
         <v>1.360900234431028E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7786,11 +7630,10 @@
         <v>1.652803830802441E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7805,11 +7648,10 @@
         <v>2.6460167020559311E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7824,11 +7666,10 @@
         <v>1.4124518260359761E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7843,11 +7684,10 @@
         <v>3.1692788004875183E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7862,11 +7702,10 @@
         <v>0.9851219654083252</v>
       </c>
       <c r="D162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E162">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F162">
@@ -7884,11 +7723,10 @@
         <v>1.3896242715418341E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7903,11 +7741,10 @@
         <v>3.7462588399648673E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7922,11 +7759,10 @@
         <v>6.8682171404361725E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7941,11 +7777,10 @@
         <v>4.1025348007678993E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7960,11 +7795,10 @@
         <v>1.4081046916544439E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7979,11 +7813,10 @@
         <v>1.3732532970607281E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7998,11 +7831,10 @@
         <v>2.439995855093002E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8017,11 +7849,10 @@
         <v>0.76134496927261353</v>
       </c>
       <c r="D170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E170">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F170">
@@ -8039,11 +7870,10 @@
         <v>1.394569501280785E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8058,11 +7888,10 @@
         <v>4.3840236961841583E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8077,11 +7906,10 @@
         <v>1.384202763438225E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8096,11 +7924,10 @@
         <v>0.98545873165130615</v>
       </c>
       <c r="D174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E174">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8115,11 +7942,10 @@
         <v>1.845750771462917E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8134,11 +7960,10 @@
         <v>1.385748293250799E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8153,11 +7978,10 @@
         <v>0.80639344453811646</v>
       </c>
       <c r="D177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E177">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8172,11 +7996,10 @@
         <v>1.4127679169178011E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8191,11 +8014,10 @@
         <v>0.98534977436065674</v>
       </c>
       <c r="D179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8210,11 +8032,10 @@
         <v>1.399978157132864E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8229,11 +8050,10 @@
         <v>1.408408489078283E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8248,11 +8068,10 @@
         <v>0.98548108339309692</v>
       </c>
       <c r="D182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8267,11 +8086,10 @@
         <v>0.21744042634963989</v>
       </c>
       <c r="D183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8286,11 +8104,10 @@
         <v>2.181940525770187E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8305,11 +8122,10 @@
         <v>1.3628507032990461E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8324,11 +8140,10 @@
         <v>1.684672944247723E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8343,11 +8158,10 @@
         <v>1.364794839173555E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8362,11 +8176,10 @@
         <v>1.365544833242893E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8381,11 +8194,10 @@
         <v>1.4867600984871389E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8400,11 +8212,10 @@
         <v>0.98547887802124023</v>
       </c>
       <c r="D190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F190">
@@ -8422,11 +8233,10 @@
         <v>1.363609824329615E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8441,11 +8251,10 @@
         <v>1.398562453687191E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8460,11 +8269,10 @@
         <v>1.38569874688983E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8479,11 +8287,10 @@
         <v>1.3654164038598539E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" ref="D194:D257" si="6">IF(C194&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D194:D257" si="3">IF(C194&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8498,11 +8305,10 @@
         <v>0.98548096418380737</v>
       </c>
       <c r="D195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">IF(ISBLANK(F195),D195,F195)</f>
         <v>1</v>
       </c>
     </row>
@@ -8517,11 +8323,10 @@
         <v>0.98543578386306763</v>
       </c>
       <c r="D196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E196">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8536,11 +8341,10 @@
         <v>1.388438139110804E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8555,11 +8359,10 @@
         <v>4.8287861049175262E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8574,11 +8377,10 @@
         <v>1.4565335586667061E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8593,11 +8395,10 @@
         <v>1.474076882004738E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8612,11 +8413,10 @@
         <v>0.88232678174972534</v>
       </c>
       <c r="D201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E201">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F201">
@@ -8634,11 +8434,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8653,11 +8452,10 @@
         <v>1.3847776688635349E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8672,11 +8470,10 @@
         <v>1.363790687173605E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8691,11 +8488,10 @@
         <v>1.7012361437082291E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8710,11 +8506,10 @@
         <v>1.8814476206898689E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8729,11 +8524,10 @@
         <v>1.3693360611796381E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8748,11 +8542,10 @@
         <v>3.6885835230350487E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8767,11 +8560,10 @@
         <v>1.410896331071854E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8786,11 +8578,10 @@
         <v>1.377839129418135E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8805,11 +8596,10 @@
         <v>4.8101726919412613E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8824,11 +8614,10 @@
         <v>1.363562978804111E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8843,11 +8632,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8862,11 +8650,10 @@
         <v>0.98546969890594482</v>
       </c>
       <c r="D214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E214">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8881,11 +8668,10 @@
         <v>1.385602261871099E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8900,11 +8686,10 @@
         <v>1.381332613527775E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8919,11 +8704,10 @@
         <v>1.3766428455710409E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8938,11 +8722,10 @@
         <v>0.98381525278091431</v>
       </c>
       <c r="D218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E218">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F218">
@@ -8960,11 +8743,10 @@
         <v>3.0248783528804779E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8979,11 +8761,10 @@
         <v>0.77303081750869751</v>
       </c>
       <c r="D220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E220">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F220">
@@ -9001,11 +8782,10 @@
         <v>0.21730828285217291</v>
       </c>
       <c r="D221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9020,11 +8800,10 @@
         <v>1.3596212491393089E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9039,11 +8818,10 @@
         <v>2.9799016192555431E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9058,11 +8836,10 @@
         <v>1.370054297149181E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9077,11 +8854,10 @@
         <v>1.3553451746702191E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9096,11 +8872,10 @@
         <v>1.3667186722159389E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9115,11 +8890,10 @@
         <v>1.5043052844703199E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9134,11 +8908,10 @@
         <v>1.3734386302530771E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9153,11 +8926,10 @@
         <v>1.369319297373295E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9172,11 +8944,10 @@
         <v>1.384891010820866E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9191,11 +8962,10 @@
         <v>0.49783143401145941</v>
       </c>
       <c r="D231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9210,11 +8980,10 @@
         <v>0.921164870262146</v>
       </c>
       <c r="D232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E232">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F232">
@@ -9232,11 +9001,10 @@
         <v>1.3615032657980921E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9251,11 +9019,10 @@
         <v>1.8027221783995628E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9270,11 +9037,10 @@
         <v>0.98013502359390259</v>
       </c>
       <c r="D235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E235">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F235">
@@ -9292,11 +9058,10 @@
         <v>1.360663305968046E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9311,11 +9076,10 @@
         <v>1.3930948451161379E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9330,11 +9094,10 @@
         <v>1.3676349073648449E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9349,11 +9112,10 @@
         <v>1.9053515046834949E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9368,11 +9130,10 @@
         <v>1.367616932839155E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9387,11 +9148,10 @@
         <v>1.3841488398611551E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9406,11 +9166,10 @@
         <v>0.98547321557998657</v>
       </c>
       <c r="D242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E242">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F242">
@@ -9428,11 +9187,10 @@
         <v>1.3614269904792311E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9447,11 +9205,10 @@
         <v>0.4349307119846344</v>
       </c>
       <c r="D244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9466,11 +9223,10 @@
         <v>0.98545873165130615</v>
       </c>
       <c r="D245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E245">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9485,11 +9241,10 @@
         <v>0.98547506332397461</v>
       </c>
       <c r="D246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E246">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F246">
@@ -9507,11 +9262,10 @@
         <v>1.374833844602108E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9526,11 +9280,10 @@
         <v>1.360043324530125E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9545,11 +9298,10 @@
         <v>3.1419649720191963E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9564,11 +9316,10 @@
         <v>1.9180066883563999E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9583,11 +9334,10 @@
         <v>1.5092285349965101E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9602,11 +9352,10 @@
         <v>1.4999832026660441E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9621,11 +9370,10 @@
         <v>0.97598558664321899</v>
       </c>
       <c r="D253">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E253">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F253">
@@ -9643,11 +9391,10 @@
         <v>1.35821308940649E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9662,11 +9409,10 @@
         <v>1.358246244490147E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9681,11 +9427,10 @@
         <v>1.8130820244550701E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9700,11 +9445,10 @@
         <v>1.381204649806023E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9719,11 +9463,10 @@
         <v>1.4091675169765949E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258:D321" si="8">IF(C258&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D258:D321" si="4">IF(C258&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9738,11 +9481,10 @@
         <v>1.376235671341419E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">IF(ISBLANK(F259),D259,F259)</f>
         <v>0</v>
       </c>
     </row>
@@ -9757,11 +9499,10 @@
         <v>0.95541709661483765</v>
       </c>
       <c r="D260">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E260">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -9776,11 +9517,10 @@
         <v>1.389784272760153E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9795,11 +9535,10 @@
         <v>1.3673121109604841E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9814,11 +9553,10 @@
         <v>1.387884002178907E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9833,11 +9571,10 @@
         <v>1.386697310954332E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9852,11 +9589,10 @@
         <v>1.3866282068192961E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9871,11 +9607,10 @@
         <v>0.98547494411468506</v>
       </c>
       <c r="D266">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E266">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -9890,11 +9625,10 @@
         <v>0.98545122146606445</v>
       </c>
       <c r="D267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E267">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -9909,11 +9643,10 @@
         <v>2.7797078713774681E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9928,11 +9661,10 @@
         <v>2.4975309148430821E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9947,11 +9679,10 @@
         <v>2.6297591626644131E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9966,11 +9697,10 @@
         <v>3.7029609084129327E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9985,11 +9715,10 @@
         <v>1.7063623294234279E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10004,11 +9733,10 @@
         <v>4.9753479659557343E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10023,11 +9751,10 @@
         <v>1.372545026242733E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10042,11 +9769,10 @@
         <v>1.421227399259806E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10061,11 +9787,10 @@
         <v>0.81145685911178589</v>
       </c>
       <c r="D276">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E276">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F276">
@@ -10083,11 +9808,10 @@
         <v>1.393276918679476E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10102,11 +9826,10 @@
         <v>0.98481237888336182</v>
       </c>
       <c r="D278">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E278">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10121,11 +9844,10 @@
         <v>1.411270443350077E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10140,11 +9862,10 @@
         <v>0.98547273874282837</v>
       </c>
       <c r="D280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E280">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10159,11 +9880,10 @@
         <v>1.4554921537637711E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10178,11 +9898,10 @@
         <v>2.985864877700806E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10197,11 +9916,10 @@
         <v>1.6145765781402591E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10216,11 +9934,10 @@
         <v>1.513702515512705E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10235,11 +9952,10 @@
         <v>1.392627786844969E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10254,11 +9970,10 @@
         <v>1.403691433370113E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10273,11 +9988,10 @@
         <v>1.369949895888567E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10292,11 +10006,10 @@
         <v>1.3832885771989821E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10311,11 +10024,10 @@
         <v>1.418130937963724E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10330,11 +10042,10 @@
         <v>2.3558169603347778E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10349,11 +10060,10 @@
         <v>0.4807281494140625</v>
       </c>
       <c r="D291">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10368,11 +10078,10 @@
         <v>1.528490241616964E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10387,11 +10096,10 @@
         <v>0.96856456995010376</v>
       </c>
       <c r="D293">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E293">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F293">
@@ -10409,11 +10117,10 @@
         <v>1.3749244622886179E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10428,11 +10135,10 @@
         <v>0.98083257675170898</v>
       </c>
       <c r="D295">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E295">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10447,11 +10153,10 @@
         <v>2.0230807363986969E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10466,11 +10171,10 @@
         <v>1.4794467948377131E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10485,11 +10189,10 @@
         <v>1.6078067943453789E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10504,11 +10207,10 @@
         <v>1.438143663108349E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10523,11 +10225,10 @@
         <v>0.94564545154571533</v>
       </c>
       <c r="D300">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E300">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F300">
@@ -10545,11 +10246,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10564,11 +10264,10 @@
         <v>0.9850085973739624</v>
       </c>
       <c r="D302">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E302">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10583,11 +10282,10 @@
         <v>0.98547250032424927</v>
       </c>
       <c r="D303">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E303">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F303">
@@ -10605,11 +10303,10 @@
         <v>2.1375250071287159E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10624,11 +10321,10 @@
         <v>1.8837409093976021E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10643,11 +10339,10 @@
         <v>0.98545372486114502</v>
       </c>
       <c r="D306">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E306">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10662,11 +10357,10 @@
         <v>0.96633243560791016</v>
       </c>
       <c r="D307">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E307">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F307">
@@ -10684,11 +10378,10 @@
         <v>0.98533731698989868</v>
       </c>
       <c r="D308">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E308">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10703,11 +10396,10 @@
         <v>0.98545515537261963</v>
       </c>
       <c r="D309">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E309">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F309">
@@ -10725,11 +10417,10 @@
         <v>1.371270604431629E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10744,11 +10435,10 @@
         <v>0.98534560203552246</v>
       </c>
       <c r="D311">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E311">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F311">
@@ -10766,11 +10456,10 @@
         <v>0.98544496297836304</v>
       </c>
       <c r="D312">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E312">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10785,11 +10474,10 @@
         <v>1.4155620709061619E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10804,11 +10492,10 @@
         <v>0.90656489133834839</v>
       </c>
       <c r="D314">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E314">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F314">
@@ -10826,11 +10513,10 @@
         <v>1.5232346951961521E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10845,11 +10531,10 @@
         <v>0.98505634069442749</v>
       </c>
       <c r="D316">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E316">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F316">
@@ -10867,11 +10552,10 @@
         <v>3.5773482173681259E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10886,11 +10570,10 @@
         <v>8.2712426781654358E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10905,11 +10588,10 @@
         <v>0.98326647281646729</v>
       </c>
       <c r="D319">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E319">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10924,11 +10606,10 @@
         <v>3.5672836005687707E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10943,11 +10624,10 @@
         <v>0.985251784324646</v>
       </c>
       <c r="D321">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E321">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F321">
@@ -10965,11 +10645,10 @@
         <v>1.377098076045513E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" ref="D322:D385" si="10">IF(C322&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D322:D385" si="5">IF(C322&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10984,11 +10663,10 @@
         <v>0.98501032590866089</v>
       </c>
       <c r="D323">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">IF(ISBLANK(F323),D323,F323)</f>
         <v>1</v>
       </c>
     </row>
@@ -11003,11 +10681,10 @@
         <v>0.97575581073760986</v>
       </c>
       <c r="D324">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E324">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F324">
@@ -11025,11 +10702,10 @@
         <v>4.3516993522644043E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11044,11 +10720,10 @@
         <v>1.546033006161451E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11063,11 +10738,10 @@
         <v>1.382323633879423E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11082,11 +10756,10 @@
         <v>0.98546957969665527</v>
       </c>
       <c r="D328">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E328">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11101,11 +10774,10 @@
         <v>0.91464346647262573</v>
       </c>
       <c r="D329">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E329">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11120,11 +10792,10 @@
         <v>0.98522806167602539</v>
       </c>
       <c r="D330">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E330">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11139,11 +10810,10 @@
         <v>0.9852021336555481</v>
       </c>
       <c r="D331">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E331">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F331">
@@ -11161,11 +10831,10 @@
         <v>6.5826192498207092E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11180,11 +10849,10 @@
         <v>1.371766813099384E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11199,11 +10867,10 @@
         <v>1.477061305195093E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11218,11 +10885,10 @@
         <v>3.6832276731729507E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11237,11 +10903,10 @@
         <v>2.4503657594323162E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11256,11 +10921,10 @@
         <v>1.8606057390570641E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11275,11 +10939,10 @@
         <v>1.3708567246794701E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11294,11 +10957,10 @@
         <v>1.6673143953084949E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11313,11 +10975,10 @@
         <v>0.98429572582244873</v>
       </c>
       <c r="D340">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E340">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11332,11 +10993,10 @@
         <v>1.432784833014011E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11351,11 +11011,10 @@
         <v>0.98275613784790039</v>
       </c>
       <c r="D342">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E342">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F342">
@@ -11373,11 +11032,10 @@
         <v>2.250722236931324E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11392,11 +11050,10 @@
         <v>0.98511707782745361</v>
       </c>
       <c r="D344">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E344">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F344">
@@ -11414,11 +11071,10 @@
         <v>0.98523914813995361</v>
       </c>
       <c r="D345">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E345">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F345">
@@ -11436,11 +11092,10 @@
         <v>1.45441135391593E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11455,11 +11110,10 @@
         <v>0.94570320844650269</v>
       </c>
       <c r="D347">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E347">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F347">
@@ -11477,11 +11131,10 @@
         <v>1.3951819390058519E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11496,11 +11149,10 @@
         <v>0.1072181910276413</v>
       </c>
       <c r="D349">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11515,11 +11167,10 @@
         <v>0.9854770302772522</v>
       </c>
       <c r="D350">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E350">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11534,11 +11185,10 @@
         <v>0.96994477510452271</v>
       </c>
       <c r="D351">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E351">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11553,11 +11203,10 @@
         <v>0.98522353172302246</v>
       </c>
       <c r="D352">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E352">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F352">
@@ -11575,11 +11224,10 @@
         <v>4.9038100987672813E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11594,11 +11242,10 @@
         <v>1.409347727894783E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11613,11 +11260,10 @@
         <v>2.4056339636445049E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11632,11 +11278,10 @@
         <v>0.95370584726333618</v>
       </c>
       <c r="D356">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E356">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F356">
@@ -11654,11 +11299,10 @@
         <v>2.658829465508461E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11673,11 +11317,10 @@
         <v>1.373568456619978E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11692,11 +11335,10 @@
         <v>1.370650995522738E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11711,11 +11353,10 @@
         <v>1.3741945847868919E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11730,11 +11371,10 @@
         <v>1.3780807144939899E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11749,11 +11389,10 @@
         <v>1.381627656519413E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11768,11 +11407,10 @@
         <v>3.82363460958004E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11787,11 +11425,10 @@
         <v>5.8576550334692001E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11806,11 +11443,10 @@
         <v>1.418903097510338E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11825,11 +11461,10 @@
         <v>5.8929596096277237E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11844,11 +11479,10 @@
         <v>4.1583355516195297E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11863,11 +11497,10 @@
         <v>5.6506391614675522E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11882,11 +11515,10 @@
         <v>1.541686337441206E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11901,11 +11533,10 @@
         <v>1.5820277854800221E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11920,11 +11551,10 @@
         <v>1.3955900445580481E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11939,11 +11569,10 @@
         <v>1.3937480747699739E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11958,11 +11587,10 @@
         <v>1.4283941127359871E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11977,11 +11605,10 @@
         <v>1.435875799506903E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11996,11 +11623,10 @@
         <v>1.3914103619754309E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12015,11 +11641,10 @@
         <v>1.38207208365202E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12034,11 +11659,10 @@
         <v>1.3642602600157259E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12053,11 +11677,10 @@
         <v>1.3645900413393971E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12072,11 +11695,10 @@
         <v>1.383338030427694E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12091,11 +11713,10 @@
         <v>0.98538011312484741</v>
       </c>
       <c r="D380">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E380">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F380">
@@ -12113,11 +11734,10 @@
         <v>1.6902690753340721E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12132,11 +11752,10 @@
         <v>1.426198240369558E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12151,11 +11770,10 @@
         <v>1.383219659328461E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12170,11 +11788,10 @@
         <v>2.399801462888718E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12189,11 +11806,10 @@
         <v>1.36557761579752E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12208,11 +11824,10 @@
         <v>1.3595719821751119E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" ref="D386:D449" si="12">IF(C386&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D386:D449" si="6">IF(C386&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12227,11 +11842,10 @@
         <v>1.376807317137718E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">IF(ISBLANK(F387),D387,F387)</f>
         <v>0</v>
       </c>
     </row>
@@ -12246,11 +11860,10 @@
         <v>1.373379863798618E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12265,11 +11878,10 @@
         <v>1.3869902119040489E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12284,11 +11896,10 @@
         <v>1.357485633343458E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12303,11 +11914,10 @@
         <v>1.386206969618797E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12322,11 +11932,10 @@
         <v>0.1792294234037399</v>
       </c>
       <c r="D392">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12341,11 +11950,10 @@
         <v>1.4742377214133739E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12360,11 +11968,10 @@
         <v>1.3741958886384961E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12379,11 +11986,10 @@
         <v>3.0588539317250248E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12398,11 +12004,10 @@
         <v>0.9854775071144104</v>
       </c>
       <c r="D396">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E396">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F396">
@@ -12420,11 +12025,10 @@
         <v>1.409982610493898E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12439,11 +12043,10 @@
         <v>1.375433336943388E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12458,11 +12061,10 @@
         <v>4.8146571964025497E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12477,11 +12079,10 @@
         <v>1.3940718024969099E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12496,11 +12097,10 @@
         <v>1.368730794638395E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12515,11 +12115,10 @@
         <v>2.509787306189537E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12534,11 +12133,10 @@
         <v>0.98546171188354492</v>
       </c>
       <c r="D403">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E403">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F403">
@@ -12556,11 +12154,10 @@
         <v>4.502573236823082E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12575,11 +12172,10 @@
         <v>0.98535579442977905</v>
       </c>
       <c r="D405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E405">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F405">
@@ -12597,11 +12193,10 @@
         <v>2.19548624008894E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12616,11 +12211,10 @@
         <v>0.98520338535308838</v>
       </c>
       <c r="D407">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E407">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F407">
@@ -12638,11 +12232,10 @@
         <v>0.98476135730743408</v>
       </c>
       <c r="D408">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E408">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F408">
@@ -12660,11 +12253,10 @@
         <v>1.545210834592581E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12679,11 +12271,10 @@
         <v>2.0513402298092839E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12698,11 +12289,10 @@
         <v>0.9854246973991394</v>
       </c>
       <c r="D411">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E411">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F411">
@@ -12720,11 +12310,10 @@
         <v>1.3952803798019889E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12739,11 +12328,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D413">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12758,11 +12346,10 @@
         <v>1.3972597196698191E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12777,11 +12364,10 @@
         <v>1.382181886583567E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12796,11 +12382,10 @@
         <v>1.397935207933187E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12815,11 +12400,10 @@
         <v>1.9716998562216759E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12834,11 +12418,10 @@
         <v>0.98522263765335083</v>
       </c>
       <c r="D418">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E418">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F418">
@@ -12856,11 +12439,10 @@
         <v>1.423251815140247E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12875,11 +12457,10 @@
         <v>1.3788937591016291E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12894,11 +12475,10 @@
         <v>1.3868949376046659E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12913,11 +12493,10 @@
         <v>0.2170426398515701</v>
       </c>
       <c r="D422">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12932,11 +12511,10 @@
         <v>1.394058763980865E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12951,11 +12529,10 @@
         <v>1.4089171774685379E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12970,11 +12547,10 @@
         <v>1.7012361437082291E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12989,11 +12565,10 @@
         <v>1.399465557187796E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13008,11 +12583,10 @@
         <v>1.3707142323255541E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13027,11 +12601,10 @@
         <v>1.396843232214451E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13046,11 +12619,10 @@
         <v>1.5661899000406269E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13065,11 +12637,10 @@
         <v>1.405362784862518E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13084,11 +12655,10 @@
         <v>1.369092054665089E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13103,11 +12673,10 @@
         <v>1.3790862634778019E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13122,11 +12691,10 @@
         <v>1.365549303591251E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13141,11 +12709,10 @@
         <v>0.98541980981826782</v>
       </c>
       <c r="D434">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E434">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -13160,11 +12727,10 @@
         <v>1.415432244539261E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13179,11 +12745,10 @@
         <v>1.365375332534313E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13198,11 +12763,10 @@
         <v>1.3695124536752701E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13217,11 +12781,10 @@
         <v>1.3698411174118521E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13236,11 +12799,10 @@
         <v>4.225626215338707E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13255,11 +12817,10 @@
         <v>1.369189191609621E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13274,11 +12835,10 @@
         <v>1.398707088083029E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13293,11 +12853,10 @@
         <v>1.3588955625891691E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13312,11 +12871,10 @@
         <v>1.385361887514591E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13331,11 +12889,10 @@
         <v>1.369263976812363E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13350,11 +12907,10 @@
         <v>3.7610646337270737E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13369,11 +12925,10 @@
         <v>3.6531485617160797E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13388,11 +12943,10 @@
         <v>1.42346452921629E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13407,11 +12961,10 @@
         <v>1.3629159890115259E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13426,11 +12979,10 @@
         <v>1.485415548086166E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13445,11 +12997,10 @@
         <v>2.3570217192173001E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" ref="D450:D513" si="14">IF(C450&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D450:D513" si="7">IF(C450&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13464,11 +13015,10 @@
         <v>1.425295695662498E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="15">IF(ISBLANK(F451),D451,F451)</f>
         <v>0</v>
       </c>
     </row>
@@ -13483,11 +13033,10 @@
         <v>1.360477693378925E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13502,11 +13051,10 @@
         <v>1.360724773257971E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13521,11 +13069,10 @@
         <v>1.359692122787237E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13540,11 +13087,10 @@
         <v>1.3997457921504969E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13559,11 +13105,10 @@
         <v>2.1150853484869E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13578,11 +13123,10 @@
         <v>1.3589587993919849E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13597,11 +13141,10 @@
         <v>0.13943663239479059</v>
       </c>
       <c r="D458">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13616,11 +13159,10 @@
         <v>0.98527389764785767</v>
       </c>
       <c r="D459">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E459">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F459">
@@ -13638,11 +13180,10 @@
         <v>1.8135301768779751E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13657,11 +13198,10 @@
         <v>0.92417049407958984</v>
       </c>
       <c r="D461">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E461">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F461">
@@ -13679,11 +13219,10 @@
         <v>1.3916166499257089E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13698,11 +13237,10 @@
         <v>4.5159477740526199E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13717,11 +13255,10 @@
         <v>1.3724843040108681E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13736,11 +13273,10 @@
         <v>1.3855058699846269E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13755,11 +13291,10 @@
         <v>1.494020689278841E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13774,11 +13309,10 @@
         <v>1.3626782223582269E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13793,11 +13327,10 @@
         <v>1.5813818201422691E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13812,11 +13345,10 @@
         <v>1.4021197333931919E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13831,11 +13363,10 @@
         <v>1.3849750161170959E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13850,11 +13381,10 @@
         <v>1.3710992410778999E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13869,11 +13399,10 @@
         <v>1.371410675346851E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13888,11 +13417,10 @@
         <v>2.26915068924427E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13907,11 +13435,10 @@
         <v>1.365925651043653E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13926,11 +13453,10 @@
         <v>1.3663762249052519E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13945,11 +13471,10 @@
         <v>1.363231427967548E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13964,11 +13489,10 @@
         <v>1.3942652381956581E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13983,11 +13507,10 @@
         <v>1.3629455119371411E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14002,11 +13525,10 @@
         <v>5.9575255960226059E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14021,11 +13543,10 @@
         <v>1.382415276020765E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14040,11 +13561,10 @@
         <v>1.4355842024087909E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14059,11 +13579,10 @@
         <v>2.589916996657848E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14078,11 +13597,10 @@
         <v>1.364837866276503E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14097,11 +13615,10 @@
         <v>1.3755065388977529E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14116,11 +13633,10 @@
         <v>1.3575565069913861E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14135,11 +13651,10 @@
         <v>1.3743451796472071E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14154,11 +13669,10 @@
         <v>1.387850660830736E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14173,11 +13687,10 @@
         <v>1.382075343281031E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14192,11 +13705,10 @@
         <v>1.367499958723783E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14211,11 +13723,10 @@
         <v>1.3809404335916041E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14230,11 +13741,10 @@
         <v>1.362264808267355E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14249,11 +13759,10 @@
         <v>1.3946716673672199E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14268,11 +13777,10 @@
         <v>2.5658240541815761E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14287,11 +13795,10 @@
         <v>1.94011777639389E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14306,11 +13813,10 @@
         <v>4.2439661920070648E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14325,11 +13831,10 @@
         <v>2.7485981583595279E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14344,11 +13849,10 @@
         <v>2.0426588132977489E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14363,11 +13867,10 @@
         <v>1.961378380656242E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14382,11 +13885,10 @@
         <v>1.3731894083321089E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14401,11 +13903,10 @@
         <v>0.98347592353820801</v>
       </c>
       <c r="D500">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E500">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F500">
@@ -14423,11 +13924,10 @@
         <v>1.540803536772728E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14442,11 +13942,10 @@
         <v>1.375817600637674E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14461,11 +13960,10 @@
         <v>1.3847821392118931E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14480,11 +13978,10 @@
         <v>0.1184520870447159</v>
       </c>
       <c r="D504">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14499,11 +13996,10 @@
         <v>1.3634635135531431E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14518,11 +14014,10 @@
         <v>1.370483450591564E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14537,11 +14032,10 @@
         <v>2.4483077228069309E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14556,11 +14050,10 @@
         <v>0.21743045747280121</v>
       </c>
       <c r="D508">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14575,11 +14068,10 @@
         <v>0.21743172407150271</v>
       </c>
       <c r="D509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14594,11 +14086,10 @@
         <v>1.3671062886714941E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14613,11 +14104,10 @@
         <v>0.98206758499145508</v>
       </c>
       <c r="D511">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E511">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F511">
@@ -14635,11 +14125,10 @@
         <v>1.35887386277318E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14654,11 +14143,10 @@
         <v>1.372811011970043E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14673,11 +14161,10 @@
         <v>1.3623917475342751E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" ref="D514:D577" si="16">IF(C514&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D514:D577" si="8">IF(C514&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14692,11 +14179,10 @@
         <v>1.7092309892177578E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="17">IF(ISBLANK(F515),D515,F515)</f>
         <v>0</v>
       </c>
     </row>
@@ -14711,11 +14197,10 @@
         <v>1.987648569047451E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14730,11 +14215,10 @@
         <v>1.42211215570569E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14749,11 +14233,10 @@
         <v>0.82506239414215088</v>
       </c>
       <c r="D518">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E518">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F518">
@@ -14771,11 +14254,10 @@
         <v>0.87056189775466919</v>
       </c>
       <c r="D519">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E519">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F519">
@@ -14793,11 +14275,10 @@
         <v>0.98518270254135132</v>
       </c>
       <c r="D520">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E520">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F520">
@@ -14815,11 +14296,10 @@
         <v>0.2174164354801178</v>
       </c>
       <c r="D521">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14834,11 +14314,10 @@
         <v>1.4372416771948339E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14853,11 +14332,10 @@
         <v>1.376950368285179E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14872,11 +14350,10 @@
         <v>3.4692395478487008E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14891,11 +14368,10 @@
         <v>3.5750560462474823E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14910,11 +14386,10 @@
         <v>1.452004257589579E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14929,11 +14404,10 @@
         <v>7.6851308345794678E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14948,11 +14422,10 @@
         <v>1.396472193300724E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14967,11 +14440,10 @@
         <v>2.4483077228069309E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14986,11 +14458,10 @@
         <v>1.3844716362655159E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15005,11 +14476,10 @@
         <v>1.3643366284668451E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15024,11 +14494,10 @@
         <v>1.365715637803078E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15043,11 +14512,10 @@
         <v>1.418410986661911E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15062,11 +14530,10 @@
         <v>1.421970594674349E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15081,11 +14548,10 @@
         <v>1.390642020851374E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15100,11 +14566,10 @@
         <v>1.451272238045931E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15119,11 +14584,10 @@
         <v>1.377145200967789E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15138,11 +14602,10 @@
         <v>3.2427564263343811E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15157,11 +14620,10 @@
         <v>1.3649251312017441E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15176,11 +14638,10 @@
         <v>1.3807501643896099E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15195,11 +14656,10 @@
         <v>1.6943030059337619E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15214,11 +14674,10 @@
         <v>1.3899619691073889E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15233,11 +14692,10 @@
         <v>1.3728504069149491E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15252,11 +14710,10 @@
         <v>1.4052689075469971E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15271,11 +14728,10 @@
         <v>1.5956703573465351E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15290,11 +14746,10 @@
         <v>0.98535257577896118</v>
       </c>
       <c r="D546">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E546">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F546">
@@ -15312,11 +14767,10 @@
         <v>1.402691192924976E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15331,11 +14785,10 @@
         <v>2.0841298624873161E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15350,11 +14803,10 @@
         <v>1.3740440830588341E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15369,11 +14821,10 @@
         <v>1.3896359130740169E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15388,11 +14839,10 @@
         <v>0.98521602153778076</v>
       </c>
       <c r="D551">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E551">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F551">
@@ -15410,11 +14860,10 @@
         <v>1.6132751479744911E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15429,11 +14878,10 @@
         <v>1.3662019744515421E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15448,11 +14896,10 @@
         <v>0.98498386144638062</v>
       </c>
       <c r="D554">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E554">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F554">
@@ -15470,11 +14917,10 @@
         <v>1.5250362455844879E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15489,11 +14935,10 @@
         <v>1.3815450482070449E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15508,11 +14953,10 @@
         <v>1.388302352279425E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15527,11 +14971,10 @@
         <v>1.373649947345257E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15546,11 +14989,10 @@
         <v>0.97714751958847046</v>
       </c>
       <c r="D559">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E559">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F559">
@@ -15568,11 +15010,10 @@
         <v>1.421972550451756E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15587,11 +15028,10 @@
         <v>0.98532396554946899</v>
       </c>
       <c r="D561">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E561">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F561">
@@ -15609,11 +15049,10 @@
         <v>1.426283456385136E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15628,11 +15067,10 @@
         <v>2.6193484663963321E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15647,11 +15085,10 @@
         <v>0.98489135503768921</v>
       </c>
       <c r="D564">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E564">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -15666,11 +15103,10 @@
         <v>1.436916179955006E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15685,11 +15121,10 @@
         <v>5.359857901930809E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15704,11 +15139,10 @@
         <v>1.3803352601826189E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15723,11 +15157,10 @@
         <v>1.385690271854401E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15742,11 +15175,10 @@
         <v>0.98537594079971313</v>
       </c>
       <c r="D569">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E569">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F569">
@@ -15764,11 +15196,10 @@
         <v>0.98547965288162231</v>
       </c>
       <c r="D570">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E570">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -15783,11 +15214,10 @@
         <v>0.1743155121803284</v>
       </c>
       <c r="D571">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15802,11 +15232,10 @@
         <v>0.9853140115737915</v>
       </c>
       <c r="D572">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E572">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F572">
@@ -15824,11 +15253,10 @@
         <v>0.98120945692062378</v>
       </c>
       <c r="D573">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E573">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F573">
@@ -15846,11 +15274,10 @@
         <v>1.3665438629686831E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15865,11 +15292,10 @@
         <v>0.98483526706695557</v>
       </c>
       <c r="D575">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E575">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F575">
@@ -15887,11 +15313,10 @@
         <v>1.385156624019146E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15906,11 +15331,10 @@
         <v>1.4404029585421091E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15925,11 +15349,10 @@
         <v>0.15857709944248199</v>
       </c>
       <c r="D578">
-        <f t="shared" ref="D578:D641" si="18">IF(C578&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D578:D641" si="9">IF(C578&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15944,11 +15367,10 @@
         <v>1.389325689524412E-2</v>
       </c>
       <c r="D579">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="19">IF(ISBLANK(F579),D579,F579)</f>
         <v>0</v>
       </c>
     </row>
@@ -15963,11 +15385,10 @@
         <v>1.774792559444904E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15982,11 +15403,10 @@
         <v>1.391106285154819E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16001,11 +15421,10 @@
         <v>0.98546773195266724</v>
       </c>
       <c r="D582">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E582">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F582">
@@ -16023,11 +15442,10 @@
         <v>1.9548395648598671E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16042,11 +15460,10 @@
         <v>1.402140129357576E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16061,11 +15478,10 @@
         <v>0.98547422885894775</v>
       </c>
       <c r="D585">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E585">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F585">
@@ -16083,11 +15499,10 @@
         <v>1.365825440734625E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16102,11 +15517,10 @@
         <v>0.98547041416168213</v>
       </c>
       <c r="D587">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E587">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16121,11 +15535,10 @@
         <v>1.7176790162920948E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16140,11 +15553,10 @@
         <v>6.1963055282831192E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16159,11 +15571,10 @@
         <v>0.9058796763420105</v>
       </c>
       <c r="D590">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E590">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16178,11 +15589,10 @@
         <v>1.3696097768843171E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16197,11 +15607,10 @@
         <v>1.41161410138011E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16216,11 +15625,10 @@
         <v>0.98381638526916504</v>
       </c>
       <c r="D593">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E593">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F593">
@@ -16238,11 +15646,10 @@
         <v>1.3603260740637779E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16257,11 +15664,10 @@
         <v>0.1633703410625458</v>
       </c>
       <c r="D595">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16276,11 +15682,10 @@
         <v>1.3614692725241181E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16295,11 +15700,10 @@
         <v>0.98546338081359863</v>
       </c>
       <c r="D597">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E597">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F597">
@@ -16317,11 +15721,10 @@
         <v>0.97806179523468018</v>
       </c>
       <c r="D598">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E598">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16336,11 +15739,10 @@
         <v>1.3572844676673411E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16355,11 +15757,10 @@
         <v>0.88249003887176514</v>
       </c>
       <c r="D600">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E600">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F600">
@@ -16377,11 +15778,10 @@
         <v>1.5121337957680231E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16396,11 +15796,10 @@
         <v>1.4850416220724579E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16415,11 +15814,10 @@
         <v>0.88249003887176514</v>
       </c>
       <c r="D603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E603">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F603">
@@ -16437,11 +15835,10 @@
         <v>1.4142970554530621E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16456,11 +15853,10 @@
         <v>1.4200320467352871E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16475,11 +15871,10 @@
         <v>1.3681149110198019E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16494,11 +15889,10 @@
         <v>1.5327519737184049E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16513,11 +15907,10 @@
         <v>2.0074935629963871E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16532,11 +15925,10 @@
         <v>0.98351997137069702</v>
       </c>
       <c r="D609">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E609">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F609">
@@ -16554,11 +15946,10 @@
         <v>0.21746477484703061</v>
       </c>
       <c r="D610">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16573,11 +15964,10 @@
         <v>1.4010804705321791E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16592,11 +15982,10 @@
         <v>1.38498218730092E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16611,11 +16000,10 @@
         <v>1.5126835554838181E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16630,11 +16018,10 @@
         <v>1.3633096590638161E-2</v>
       </c>
       <c r="D614">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16649,11 +16036,10 @@
         <v>1.3683773577213291E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16668,11 +16054,10 @@
         <v>0.2091972678899765</v>
       </c>
       <c r="D616">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16687,11 +16072,10 @@
         <v>1.6229275614023209E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16706,11 +16090,10 @@
         <v>1.3839671388268471E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16725,11 +16108,10 @@
         <v>1.884989254176617E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16744,11 +16126,10 @@
         <v>1.4023127965629101E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16763,11 +16144,10 @@
         <v>1.384259480983019E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16782,11 +16162,10 @@
         <v>1.399520877748728E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16801,11 +16180,10 @@
         <v>0.98548156023025513</v>
       </c>
       <c r="D623">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E623">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16820,11 +16198,10 @@
         <v>1.371894404292107E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16839,11 +16216,10 @@
         <v>0.98520755767822266</v>
       </c>
       <c r="D625">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E625">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16858,11 +16234,10 @@
         <v>1.3693533837795259E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16877,11 +16252,10 @@
         <v>2.5735851377248761E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16896,11 +16270,10 @@
         <v>1.535927504301071E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16915,11 +16288,10 @@
         <v>1.3641370460391039E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16934,11 +16306,10 @@
         <v>1.373568456619978E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16953,11 +16324,10 @@
         <v>1.36577021330595E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16972,11 +16342,10 @@
         <v>1.364337932318449E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16991,11 +16360,10 @@
         <v>3.8941327482461929E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17010,11 +16378,10 @@
         <v>1.554894540458918E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17029,11 +16396,10 @@
         <v>1.3700819574296469E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17048,11 +16414,10 @@
         <v>0.44036269187927252</v>
       </c>
       <c r="D636">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17067,11 +16432,10 @@
         <v>0.97798824310302734</v>
       </c>
       <c r="D637">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E637">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F637">
@@ -17089,11 +16453,10 @@
         <v>1.8946085125207901E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17108,11 +16471,10 @@
         <v>3.6954384297132492E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17127,11 +16489,10 @@
         <v>4.7457978129386902E-2</v>
       </c>
       <c r="D640">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17146,11 +16507,10 @@
         <v>2.764524519443512E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17165,11 +16525,10 @@
         <v>1.693493872880936E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" ref="D642:D705" si="20">IF(C642&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D642:D705" si="10">IF(C642&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17184,11 +16543,10 @@
         <v>0.98547667264938354</v>
       </c>
       <c r="D643">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="21">IF(ISBLANK(F643),D643,F643)</f>
         <v>1</v>
       </c>
     </row>
@@ -17203,11 +16561,10 @@
         <v>3.8167007267475128E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17222,11 +16579,10 @@
         <v>1.4438974671065811E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17241,11 +16597,10 @@
         <v>0.92238962650299072</v>
       </c>
       <c r="D646">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E646">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F646">
@@ -17263,11 +16618,10 @@
         <v>0.2174541354179382</v>
       </c>
       <c r="D647">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17282,11 +16636,10 @@
         <v>1.3676672242581841E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17301,11 +16654,10 @@
         <v>1.3693630695343019E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17320,11 +16672,10 @@
         <v>1.3902228325605391E-2</v>
       </c>
       <c r="D650">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17339,11 +16690,10 @@
         <v>1.373559422791004E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17358,11 +16708,10 @@
         <v>0.4927791953086853</v>
       </c>
       <c r="D652">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17377,11 +16726,10 @@
         <v>1.9390160217881199E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17396,11 +16744,10 @@
         <v>1.3742282055318361E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17415,11 +16762,10 @@
         <v>0.98046755790710449</v>
       </c>
       <c r="D655">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E655">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F655">
@@ -17437,11 +16783,10 @@
         <v>0.91159683465957642</v>
       </c>
       <c r="D656">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E656">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F656">
@@ -17459,11 +16804,10 @@
         <v>4.6507276594638818E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17478,11 +16822,10 @@
         <v>0.76038813591003418</v>
       </c>
       <c r="D658">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E658">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F658">
@@ -17500,11 +16843,10 @@
         <v>1.5875214710831639E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17519,11 +16861,10 @@
         <v>1.426337193697691E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17538,11 +16879,10 @@
         <v>1.4021775685250761E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17557,11 +16897,10 @@
         <v>1.4057577587664131E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17576,11 +16915,10 @@
         <v>7.7158838510513306E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17595,11 +16933,10 @@
         <v>2.8158256784081459E-2</v>
       </c>
       <c r="D664">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E664">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17614,11 +16951,10 @@
         <v>1.392293907701969E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17633,11 +16969,10 @@
         <v>1.3719937764108179E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17652,11 +16987,10 @@
         <v>1.3812911696732041E-2</v>
       </c>
       <c r="D667">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E667">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17671,11 +17005,10 @@
         <v>0.21741752326488489</v>
       </c>
       <c r="D668">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17690,11 +17023,10 @@
         <v>1.39779057353735E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17709,11 +17041,10 @@
         <v>1.375781372189522E-2</v>
       </c>
       <c r="D670">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E670">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17728,11 +17059,10 @@
         <v>1.358979288488626E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17747,11 +17077,10 @@
         <v>1.363801583647728E-2</v>
       </c>
       <c r="D672">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17766,11 +17095,10 @@
         <v>1.379357371479273E-2</v>
       </c>
       <c r="D673">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17785,11 +17113,10 @@
         <v>1.379324309527874E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17804,11 +17131,10 @@
         <v>1.3653476722538469E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17823,11 +17149,10 @@
         <v>1.548293977975845E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17842,11 +17167,10 @@
         <v>0.2173096090555191</v>
       </c>
       <c r="D677">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17861,11 +17185,10 @@
         <v>2.4095093831419941E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17880,11 +17203,10 @@
         <v>1.382228638976812E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17899,11 +17221,10 @@
         <v>0.1245572790503502</v>
       </c>
       <c r="D680">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17918,11 +17239,10 @@
         <v>0.98538661003112793</v>
       </c>
       <c r="D681">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E681">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F681">
@@ -17940,11 +17260,10 @@
         <v>1.364320609718561E-2</v>
       </c>
       <c r="D682">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E682">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17959,11 +17278,10 @@
         <v>0.67692428827285767</v>
       </c>
       <c r="D683">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E683">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F683">
@@ -17981,11 +17299,10 @@
         <v>1.360702980309725E-2</v>
       </c>
       <c r="D684">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E684">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18000,11 +17317,10 @@
         <v>1.620038598775864E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18019,11 +17335,10 @@
         <v>3.2475419342517853E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18038,11 +17353,10 @@
         <v>3.333272784948349E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18057,11 +17371,10 @@
         <v>5.181126669049263E-2</v>
       </c>
       <c r="D688">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E688">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18076,11 +17389,10 @@
         <v>3.5062305629253387E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18095,11 +17407,10 @@
         <v>1.36304097250104E-2</v>
       </c>
       <c r="D690">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E690">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18114,11 +17425,10 @@
         <v>5.1176149398088462E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18133,11 +17443,10 @@
         <v>2.2476337850093842E-2</v>
       </c>
       <c r="D692">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E692">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18152,11 +17461,10 @@
         <v>2.116310968995094E-2</v>
       </c>
       <c r="D693">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18171,11 +17479,10 @@
         <v>1.3924406841397291E-2</v>
       </c>
       <c r="D694">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E694">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18190,11 +17497,10 @@
         <v>0.79688853025436401</v>
       </c>
       <c r="D695">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E695">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F695">
@@ -18212,11 +17518,10 @@
         <v>1.370675582438707E-2</v>
       </c>
       <c r="D696">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E696">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18231,11 +17536,10 @@
         <v>1.39510128647089E-2</v>
       </c>
       <c r="D697">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E697">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18250,11 +17554,10 @@
         <v>5.7145629078149802E-2</v>
       </c>
       <c r="D698">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E698">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18269,11 +17572,10 @@
         <v>1.470091938972473E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18288,11 +17590,10 @@
         <v>0.2172937989234924</v>
       </c>
       <c r="D700">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18307,11 +17608,10 @@
         <v>1.9849361851811409E-2</v>
       </c>
       <c r="D701">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E701">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18326,11 +17626,10 @@
         <v>1.364329550415277E-2</v>
       </c>
       <c r="D702">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E702">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18345,11 +17644,10 @@
         <v>1.399343181401491E-2</v>
       </c>
       <c r="D703">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E703">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18364,11 +17662,10 @@
         <v>1.376171503216028E-2</v>
       </c>
       <c r="D704">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E704">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18383,11 +17680,10 @@
         <v>1.36667313054204E-2</v>
       </c>
       <c r="D705">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E705">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18402,11 +17698,10 @@
         <v>1.36667313054204E-2</v>
       </c>
       <c r="D706">
-        <f t="shared" ref="D706:D722" si="22">IF(C706&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D706:D722" si="11">IF(C706&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E706">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18421,11 +17716,10 @@
         <v>1.38529222458601E-2</v>
       </c>
       <c r="D707">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E722" si="23">IF(ISBLANK(F707),D707,F707)</f>
         <v>0</v>
       </c>
     </row>
@@ -18440,11 +17734,10 @@
         <v>1.4771951362490651E-2</v>
       </c>
       <c r="D708">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E708">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18459,11 +17752,10 @@
         <v>0.98147237300872803</v>
       </c>
       <c r="D709">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E709">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18478,11 +17770,10 @@
         <v>1.3754734769463541E-2</v>
       </c>
       <c r="D710">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E710">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18497,11 +17788,10 @@
         <v>0.98536169528961182</v>
       </c>
       <c r="D711">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E711">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F711">
@@ -18519,11 +17809,10 @@
         <v>0.98547446727752686</v>
       </c>
       <c r="D712">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E712">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18538,11 +17827,10 @@
         <v>1.3841753825545309E-2</v>
       </c>
       <c r="D713">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E713">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18557,11 +17845,10 @@
         <v>0.98545503616333008</v>
       </c>
       <c r="D714">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E714">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18576,11 +17863,10 @@
         <v>0.98523682355880737</v>
       </c>
       <c r="D715">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E715">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18595,11 +17881,10 @@
         <v>2.093387953937054E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18614,11 +17899,10 @@
         <v>1.3598635792732241E-2</v>
       </c>
       <c r="D717">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E717">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18633,11 +17917,10 @@
         <v>0.9854770302772522</v>
       </c>
       <c r="D718">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E718">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18652,11 +17935,10 @@
         <v>1.467618532478809E-2</v>
       </c>
       <c r="D719">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E719">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18671,11 +17953,10 @@
         <v>1.372500509023666E-2</v>
       </c>
       <c r="D720">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E720">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18690,11 +17971,10 @@
         <v>0.98532581329345703</v>
       </c>
       <c r="D721">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E721">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18709,11 +17989,10 @@
         <v>1.363767590373755E-2</v>
       </c>
       <c r="D722">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E722">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
